--- a/data/invalid_login.xlsx
+++ b/data/invalid_login.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -112,8 +112,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -137,40 +141,40 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>123</v>
       </c>
     </row>
